--- a/FrameworkExercise/TestCases.xlsx
+++ b/FrameworkExercise/TestCases.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\Trabajo\TATA\Cursos\Selenium\Code\FrameworkExercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{883C4899-97BA-4A32-B11E-0B4ACEF479A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FAA615-F73D-471E-8CDC-240D709B3AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case Login" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,11 @@
     <sheet name="Test Case CheckOut" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="80000"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="119">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -106,9 +97,6 @@
     <t>Navigate to http://automationpractice.com/index.php</t>
   </si>
   <si>
-    <t>TestLogin</t>
-  </si>
-  <si>
     <t>Test the Login Functionality in the Store App.</t>
   </si>
   <si>
@@ -386,12 +374,18 @@
   </si>
   <si>
     <t>Redirection to the Order Confirmation Page, an order success message should be displayed by the App.</t>
+  </si>
+  <si>
+    <t>TC001_TestLogin</t>
+  </si>
+  <si>
+    <t>Diego Rugerio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -467,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -566,12 +560,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -604,6 +624,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -614,60 +694,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -682,38 +709,39 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -722,6 +750,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1003,11 +1046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:C39"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1015,39 +1058,40 @@
     <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="4.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="9.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="0.140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="36.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="4.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="9.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="0.140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1060,11 +1104,11 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
@@ -1077,7 +1121,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1090,68 +1134,68 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="19">
+      <c r="E5" s="52"/>
+      <c r="F5" s="53">
         <v>44460</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:12" s="33" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="11"/>
@@ -1161,7 +1205,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1174,102 +1218,97 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="34" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="F10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="9">
+      <c r="C11" s="63"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="9">
         <v>1</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="F11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="9">
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="F12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="9">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="9">
         <v>3</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9">
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="9">
         <v>4</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1281,140 +1320,147 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="44"/>
+      <c r="G17" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="35" t="s">
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-    </row>
-    <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>1</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="34"/>
+      <c r="G19" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="34"/>
+      <c r="G20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="37"/>
+      <c r="L20" s="38"/>
+    </row>
+    <row r="21" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>3</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="12" t="s">
+      <c r="B21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="37"/>
+      <c r="L21" s="38"/>
+    </row>
+    <row r="22" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>4</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="34"/>
+      <c r="G22" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="37"/>
+      <c r="L22" s="38"/>
+    </row>
+    <row r="23" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="3"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1422,148 +1468,157 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="C25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="34" t="s">
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="H27" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>1</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="9">
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="9">
         <v>1</v>
       </c>
-      <c r="G28" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H28" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="38"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>2</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="9">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="9">
         <v>2</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H29" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="38"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>3</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="9">
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="9">
         <v>3</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="38"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>4</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="9">
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="9">
         <v>4</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="38"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1575,140 +1630,147 @@
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="38" t="s">
+      <c r="C34" s="41"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="44"/>
+      <c r="G34" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="35" t="s">
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="46"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>1</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="16" t="s">
+      <c r="C36" s="39"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="34"/>
+      <c r="G36" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="37"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
+    </row>
+    <row r="37" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>2</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="34"/>
+      <c r="G37" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="37"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38"/>
+    </row>
+    <row r="38" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>3</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="12" t="s">
+      <c r="B38" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="35"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="37"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="37"/>
+      <c r="L38" s="38"/>
+    </row>
+    <row r="39" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>4</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="12" t="s">
+      <c r="B39" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="35"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="37"/>
+      <c r="L39" s="38"/>
+    </row>
+    <row r="40" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="3"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1716,148 +1778,157 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="27" t="s">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="C42" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="59"/>
+      <c r="E42" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="4"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="30" t="s">
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="34" t="s">
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="H44" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>1</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="9">
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="9">
         <v>1</v>
       </c>
-      <c r="G45" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H45" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="38"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>2</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="9">
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="9">
         <v>2</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="H46" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="14"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="38"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>3</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="9">
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="9">
         <v>3</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="14"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H47" s="36"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="38"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>4</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="9">
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="9">
         <v>4</v>
       </c>
-      <c r="G48" s="12"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="14"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H48" s="36"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="38"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1869,239 +1940,246 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="35" t="s">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="38" t="s">
+      <c r="C51" s="41"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="35" t="s">
+      <c r="F51" s="44"/>
+      <c r="G51" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="35" t="s">
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="36"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>1</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="16" t="s">
+      <c r="C53" s="39"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="34"/>
+      <c r="G53" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="13"/>
-      <c r="K53" s="14"/>
-    </row>
-    <row r="54" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="37"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K53" s="37"/>
+      <c r="L53" s="38"/>
+    </row>
+    <row r="54" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>2</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="34"/>
+      <c r="G54" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="13"/>
-      <c r="K54" s="14"/>
-    </row>
-    <row r="55" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="37"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K54" s="37"/>
+      <c r="L54" s="38"/>
+    </row>
+    <row r="55" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>3</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="12" t="s">
+      <c r="B55" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="34"/>
+      <c r="G55" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="13"/>
-      <c r="K55" s="14"/>
-    </row>
-    <row r="56" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="37"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="37"/>
+      <c r="L55" s="38"/>
+    </row>
+    <row r="56" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <v>4</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="12" t="s">
+      <c r="B56" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="35"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="34"/>
+      <c r="G56" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="13"/>
-      <c r="K56" s="14"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="K56" s="37"/>
+      <c r="L56" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="G47:K47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="G48:K48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="F51:H52"/>
-    <mergeCell ref="I51:K52"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="G46:K46"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="F10:J10"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:E35"/>
-    <mergeCell ref="F34:H35"/>
-    <mergeCell ref="I34:K35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:I35"/>
+    <mergeCell ref="J34:L35"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="H29:L29"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J17:L18"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="G17:I18"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="G51:I52"/>
+    <mergeCell ref="J51:L52"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="J54:L54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2111,7 +2189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -2134,25 +2212,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -2168,10 +2246,10 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
@@ -2198,75 +2276,75 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="19">
+      <c r="E5" s="52"/>
+      <c r="F5" s="53">
         <v>44460</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -2282,97 +2360,97 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>1</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="G11" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="3"/>
       <c r="F13" s="9">
         <v>3</v>
       </c>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="3"/>
       <c r="F14" s="9">
         <v>4</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2388,114 +2466,114 @@
       <c r="K15" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="35" t="s">
+      <c r="E17" s="44"/>
+      <c r="F17" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="35" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>1</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="34"/>
+      <c r="F19" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>3</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="22"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2506,36 +2584,36 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="28" t="s">
+      <c r="A24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
@@ -2551,97 +2629,97 @@
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>1</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="3"/>
       <c r="F27" s="9">
         <v>1</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
+      <c r="G27" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>2</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="3"/>
       <c r="F28" s="9">
         <v>2</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>3</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="3"/>
       <c r="F29" s="9">
         <v>3</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="14"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>4</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="3"/>
       <c r="F30" s="9">
         <v>4</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="14"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="38"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -2657,114 +2735,114 @@
       <c r="K31" s="3"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="38" t="s">
+      <c r="C33" s="41"/>
+      <c r="D33" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="35" t="s">
+      <c r="E33" s="44"/>
+      <c r="F33" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="35" t="s">
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>1</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="16" t="s">
+      <c r="C35" s="39"/>
+      <c r="D35" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="12" t="s">
+      <c r="E35" s="34"/>
+      <c r="F35" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="14"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>2</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="12" t="s">
+      <c r="B36" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="35"/>
+      <c r="D36" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="37"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>3</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="35"/>
+      <c r="D37" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="12" t="s">
+      <c r="E37" s="34"/>
+      <c r="F37" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="37"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="22"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2775,35 +2853,35 @@
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="28" t="s">
+      <c r="A40" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="54"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="58"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2820,97 +2898,97 @@
       <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>1</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="3"/>
       <c r="F43" s="9">
         <v>1</v>
       </c>
-      <c r="G43" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="14"/>
+      <c r="G43" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="38"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>2</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="3"/>
       <c r="F44" s="9">
         <v>2</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="14"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>3</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="3"/>
       <c r="F45" s="9">
         <v>3</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="14"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>4</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="3"/>
       <c r="F46" s="9">
         <v>4</v>
       </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="14"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="38"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
@@ -2926,142 +3004,204 @@
       <c r="K47" s="3"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="38" t="s">
+      <c r="C49" s="41"/>
+      <c r="D49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="35" t="s">
+      <c r="E49" s="44"/>
+      <c r="F49" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="35" t="s">
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="36"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>1</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="16" t="s">
+      <c r="C51" s="39"/>
+      <c r="D51" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="12" t="s">
+      <c r="E51" s="34"/>
+      <c r="F51" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="14"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="37"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>2</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="12" t="s">
+      <c r="B52" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="34"/>
+      <c r="F52" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="13"/>
-      <c r="K52" s="14"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="37"/>
+      <c r="K52" s="38"/>
     </row>
     <row r="53" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>3</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="12" t="s">
+      <c r="B53" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="34"/>
+      <c r="F53" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="13"/>
-      <c r="K53" s="14"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="37"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>4</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="12" t="s">
+      <c r="E54" s="34"/>
+      <c r="F54" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="13"/>
-      <c r="K54" s="14"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="37"/>
+      <c r="K54" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="D33:E34"/>
+    <mergeCell ref="F33:H34"/>
+    <mergeCell ref="I33:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="F49:H50"/>
+    <mergeCell ref="I49:K50"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="F54:H54"/>
@@ -3074,84 +3214,22 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:H52"/>
     <mergeCell ref="I52:K52"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:K53"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="G45:K45"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="G46:K46"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="F49:H50"/>
-    <mergeCell ref="I49:K50"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="G42:K42"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="G43:K43"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="D33:E34"/>
-    <mergeCell ref="F33:H34"/>
-    <mergeCell ref="I33:K34"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3160,7 +3238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -3183,25 +3261,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -3217,10 +3295,10 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
@@ -3247,75 +3325,75 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="19">
+      <c r="E5" s="52"/>
+      <c r="F5" s="53">
         <v>44460</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -3331,103 +3409,103 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>1</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="G11" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
+      <c r="G12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="3"/>
       <c r="F13" s="9">
         <v>3</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
+      <c r="G13" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="3"/>
       <c r="F14" s="9">
         <v>4</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
+      <c r="G14" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -3443,137 +3521,137 @@
       <c r="K15" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="35" t="s">
+      <c r="E17" s="44"/>
+      <c r="F17" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="35" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>1</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="34"/>
+      <c r="F19" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>3</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>4</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="22"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -3585,36 +3663,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="A1:B1"/>
@@ -3626,6 +3674,36 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -3634,10 +3712,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -3657,25 +3735,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="52"/>
       <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
@@ -3691,10 +3769,10 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
@@ -3721,75 +3799,75 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="19">
+      <c r="E5" s="52"/>
+      <c r="F5" s="53">
         <v>44460</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" s="51" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:11" s="33" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
@@ -3805,103 +3883,103 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="3"/>
       <c r="F11" s="9">
         <v>1</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="G11" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="3"/>
       <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
+      <c r="G12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="3"/>
       <c r="F13" s="9">
         <v>3</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
       <c r="E14" s="3"/>
       <c r="F14" s="9">
         <v>4</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
+      <c r="G14" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -3917,326 +3995,326 @@
       <c r="K15" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="35" t="s">
+      <c r="E17" s="44"/>
+      <c r="F17" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="35" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>1</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="39"/>
+      <c r="D19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="12" t="s">
+      <c r="E19" s="34"/>
+      <c r="F19" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="34"/>
+      <c r="F20" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="14"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>3</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="12" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>4</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="34"/>
+      <c r="F22" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
     </row>
     <row r="23" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>5</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="12" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
     </row>
     <row r="24" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>6</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="12" t="s">
+      <c r="E24" s="34"/>
+      <c r="F24" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>7</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="12" t="s">
+      <c r="E25" s="34"/>
+      <c r="F25" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>8</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="12" t="s">
+      <c r="E26" s="34"/>
+      <c r="F26" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="14"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>9</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="34"/>
+      <c r="F27" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>10</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="12" t="s">
+      <c r="E28" s="34"/>
+      <c r="F28" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="14"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
     </row>
     <row r="29" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>11</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="16" t="s">
+      <c r="E29" s="34"/>
+      <c r="F29" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="28" t="s">
+      <c r="C32" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
@@ -4252,101 +4330,101 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="34" t="s">
+      <c r="F34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>1</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="3"/>
       <c r="F35" s="9">
         <v>1</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="14"/>
+      <c r="G35" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="38"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>2</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="3"/>
       <c r="F36" s="9">
         <v>2</v>
       </c>
-      <c r="G36" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
+      <c r="G36" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="38"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>3</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="38"/>
       <c r="E37" s="3"/>
       <c r="F37" s="9">
         <v>3</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="14"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="38"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>4</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
       <c r="E38" s="3"/>
       <c r="F38" s="9">
         <v>4</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="14"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
@@ -4362,354 +4440,451 @@
       <c r="K39" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="38" t="s">
+      <c r="C41" s="41"/>
+      <c r="D41" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="35" t="s">
+      <c r="E41" s="44"/>
+      <c r="F41" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="35" t="s">
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="36"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>1</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="16" t="s">
+      <c r="C43" s="39"/>
+      <c r="D43" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="12" t="s">
+      <c r="E43" s="34"/>
+      <c r="F43" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="14"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="37"/>
+      <c r="K43" s="38"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>2</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="35"/>
+      <c r="D44" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="12" t="s">
+      <c r="E44" s="34"/>
+      <c r="F44" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="13"/>
-      <c r="K44" s="14"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="37"/>
+      <c r="K44" s="38"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>3</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="12" t="s">
+      <c r="E45" s="34"/>
+      <c r="F45" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J45" s="13"/>
-      <c r="K45" s="14"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="37"/>
+      <c r="K45" s="38"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>4</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="35"/>
+      <c r="D46" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="12" t="s">
+      <c r="E46" s="34"/>
+      <c r="F46" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="13"/>
-      <c r="K46" s="14"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="37"/>
+      <c r="K46" s="38"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>5</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="35"/>
+      <c r="D47" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="12" t="s">
+      <c r="E47" s="34"/>
+      <c r="F47" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="13"/>
-      <c r="K47" s="14"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="37"/>
+      <c r="K47" s="38"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>6</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="12" t="s">
+      <c r="E48" s="34"/>
+      <c r="F48" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="13"/>
-      <c r="K48" s="14"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="37"/>
+      <c r="K48" s="38"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>7</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="35"/>
+      <c r="D49" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E49" s="16"/>
-      <c r="F49" s="12" t="s">
+      <c r="E49" s="34"/>
+      <c r="F49" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="13"/>
-      <c r="K49" s="14"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="37"/>
+      <c r="K49" s="38"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>8</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="35"/>
+      <c r="D50" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="16"/>
-      <c r="F50" s="12" t="s">
+      <c r="E50" s="34"/>
+      <c r="F50" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="13"/>
-      <c r="K50" s="14"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="37"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>9</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="35"/>
+      <c r="D51" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="12" t="s">
+      <c r="E51" s="34"/>
+      <c r="F51" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="14"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="37"/>
+      <c r="K51" s="38"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>10</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="35"/>
+      <c r="D52" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="16"/>
-      <c r="F52" s="12" t="s">
+      <c r="E52" s="34"/>
+      <c r="F52" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="13"/>
-      <c r="K52" s="14"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="37"/>
+      <c r="K52" s="38"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>11</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="35"/>
+      <c r="D53" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="16"/>
-      <c r="F53" s="12" t="s">
+      <c r="E53" s="34"/>
+      <c r="F53" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="13"/>
-      <c r="K53" s="14"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="37"/>
+      <c r="K53" s="38"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>12</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="35"/>
+      <c r="D54" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="12" t="s">
+      <c r="E54" s="34"/>
+      <c r="F54" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="13"/>
-      <c r="K54" s="14"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="37"/>
+      <c r="K54" s="38"/>
     </row>
     <row r="55" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>13</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="35"/>
+      <c r="D55" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="12" t="s">
+      <c r="E55" s="34"/>
+      <c r="F55" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="13"/>
-      <c r="K55" s="14"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="37"/>
+      <c r="K55" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="D41:E42"/>
+    <mergeCell ref="F41:H42"/>
+    <mergeCell ref="I41:K42"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="F51:H51"/>
@@ -4726,115 +4901,18 @@
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="F50:H50"/>
     <mergeCell ref="I50:K50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="D41:E42"/>
-    <mergeCell ref="F41:H42"/>
-    <mergeCell ref="I41:K42"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
